--- a/Assets/9. RawData/RecipeDBSheet.xlsx
+++ b/Assets/9. RawData/RecipeDBSheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_O\Assets\9. RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1367B4-E7F9-4510-90F1-CA5785D386BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC903A-C2C0-47A0-A150-3F75A01EBF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="525" windowWidth="22500" windowHeight="14100" xr2:uid="{BDCDF730-9A78-40A9-AE82-146CAEA5D467}"/>
   </bookViews>
   <sheets>
-    <sheet name="Recipe" sheetId="1" r:id="rId1"/>
+    <sheet name="Recipes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recipe!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recipes!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,13 +459,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,13 +491,13 @@
         <v>10000001</v>
       </c>
       <c r="B2">
-        <v>1001004</v>
+        <v>10010004</v>
       </c>
       <c r="C2">
-        <v>1002001</v>
+        <v>10020001</v>
       </c>
       <c r="E2">
-        <v>2001001</v>
+        <v>20010001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,13 +505,13 @@
         <v>10000002</v>
       </c>
       <c r="B3">
-        <v>1001003</v>
+        <v>10010003</v>
       </c>
       <c r="C3">
-        <v>1002004</v>
+        <v>10020004</v>
       </c>
       <c r="E3">
-        <v>2001002</v>
+        <v>20010002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,13 +519,13 @@
         <v>10000003</v>
       </c>
       <c r="B4">
-        <v>1001002</v>
+        <v>10010002</v>
       </c>
       <c r="C4">
-        <v>1002006</v>
+        <v>10020006</v>
       </c>
       <c r="E4">
-        <v>2001003</v>
+        <v>20010003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,13 +533,13 @@
         <v>10000004</v>
       </c>
       <c r="B5">
-        <v>1001001</v>
+        <v>10010001</v>
       </c>
       <c r="C5">
-        <v>1002003</v>
+        <v>10020003</v>
       </c>
       <c r="E5">
-        <v>2001004</v>
+        <v>20010004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,13 +547,13 @@
         <v>10000005</v>
       </c>
       <c r="B6">
-        <v>1001005</v>
+        <v>10010005</v>
       </c>
       <c r="C6">
-        <v>1002005</v>
+        <v>10020005</v>
       </c>
       <c r="E6">
-        <v>2001005</v>
+        <v>20010005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>10000006</v>
       </c>
       <c r="B7">
-        <v>1001006</v>
+        <v>10010006</v>
       </c>
       <c r="C7">
-        <v>1002002</v>
+        <v>10020002</v>
       </c>
       <c r="E7">
-        <v>2001006</v>
+        <v>20010006</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/9. RawData/RecipeDBSheet.xlsx
+++ b/Assets/9. RawData/RecipeDBSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_O\Assets\9. RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC903A-C2C0-47A0-A150-3F75A01EBF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A078F0C5-CA31-4DD4-8EC2-AA03F483BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="525" windowWidth="22500" windowHeight="14100" xr2:uid="{BDCDF730-9A78-40A9-AE82-146CAEA5D467}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{BDCDF730-9A78-40A9-AE82-146CAEA5D467}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +112,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +470,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,6 +507,9 @@
       <c r="C2">
         <v>10020001</v>
       </c>
+      <c r="D2" s="1">
+        <v>10030001</v>
+      </c>
       <c r="E2">
         <v>20010001</v>
       </c>
@@ -510,6 +524,9 @@
       <c r="C3">
         <v>10020004</v>
       </c>
+      <c r="D3" s="1">
+        <v>10030001</v>
+      </c>
       <c r="E3">
         <v>20010002</v>
       </c>
@@ -524,6 +541,9 @@
       <c r="C4">
         <v>10020006</v>
       </c>
+      <c r="D4" s="1">
+        <v>10030004</v>
+      </c>
       <c r="E4">
         <v>20010003</v>
       </c>
@@ -538,6 +558,9 @@
       <c r="C5">
         <v>10020003</v>
       </c>
+      <c r="D5" s="1">
+        <v>10030002</v>
+      </c>
       <c r="E5">
         <v>20010004</v>
       </c>
@@ -552,6 +575,9 @@
       <c r="C6">
         <v>10020005</v>
       </c>
+      <c r="D6" s="1">
+        <v>10030003</v>
+      </c>
       <c r="E6">
         <v>20010005</v>
       </c>
@@ -565,6 +591,9 @@
       </c>
       <c r="C7">
         <v>10020002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10030001</v>
       </c>
       <c r="E7">
         <v>20010006</v>
